--- a/biology/Microbiologie/Marinobacter/Marinobacter.xlsx
+++ b/biology/Microbiologie/Marinobacter/Marinobacter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marinobacter est un genre bactéries halotolérantes à Gram négatif de la famille des Alteromonadaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La recherche de bactéries capables de dégrader les hydrocarbures, le long des côtes françaises, a conduit à l'isolement d'une souche d'abord appelée Alteromonas souche SP.17 à proximité d'une raffinerie pétrolière[1]. Sa caractérisation a démontré qu'il s'agit d'une souche appartenant à une nouvelle espèce qui a été appelée Marinobacter hydrocarbonoclasticus au sein du nouveau genre bactérien Marinobacter[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La recherche de bactéries capables de dégrader les hydrocarbures, le long des côtes françaises, a conduit à l'isolement d'une souche d'abord appelée Alteromonas souche SP.17 à proximité d'une raffinerie pétrolière. Sa caractérisation a démontré qu'il s'agit d'une souche appartenant à une nouvelle espèce qui a été appelée Marinobacter hydrocarbonoclasticus au sein du nouveau genre bactérien Marinobacter.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bactéries du genre Marinobacter sont des bactéries à Gram-négatif. Ce sont des bacilles généralement de 0,6à 0,8 μm de large pour 1,6 à 2 μm de long[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bactéries du genre Marinobacter sont des bactéries à Gram-négatif. Ce sont des bacilles généralement de 0,6à 0,8 μm de large pour 1,6 à 2 μm de long.
 </t>
         </is>
       </c>
@@ -573,15 +589,122 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Marinobacter Gauthier et al., 1992[2],[3].
-Étymologie
-L'étymologie de ce genre Marinobacter est la suivante : Ma.ri.no.bac.ter. L. masc. adj. marinus, de la mer, marin; N.L. masc. n. bacter, bacille; N.L. masc. n. Marinobacter, bacille de la mer[4]. Le nouveau nom a été validé également en 2019 par l'ICSP[5].
-Phylogénie
-L'analyse phylogénique des séquences du 16S rRNA de 500 espèces bactériennes a permis de montrer que la souche SP.17 représente une espèce distincte des espèces Pseudomonas aeruginosa, Marinomonas vaga, Oceanospirillum linum et Halomonas elongata et qu'elle représente aussi sous le nom de M. hydrocarbonoclasticus, l'espèce type d'un nouveau genre[6].
-Liste des espèces
-Selon LPSN  (3 avril 2023)[7] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Marinobacter Gauthier et al., 1992,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marinobacter</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marinobacter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de ce genre Marinobacter est la suivante : Ma.ri.no.bac.ter. L. masc. adj. marinus, de la mer, marin; N.L. masc. n. bacter, bacille; N.L. masc. n. Marinobacter, bacille de la mer. Le nouveau nom a été validé également en 2019 par l'ICSP.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marinobacter</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marinobacter</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénique des séquences du 16S rRNA de 500 espèces bactériennes a permis de montrer que la souche SP.17 représente une espèce distincte des espèces Pseudomonas aeruginosa, Marinomonas vaga, Oceanospirillum linum et Halomonas elongata et qu'elle représente aussi sous le nom de M. hydrocarbonoclasticus, l'espèce type d'un nouveau genre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marinobacter</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marinobacter</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon LPSN  (3 avril 2023) : 
 Marinobacter adhaerens Kaeppel et al. 2012
 Marinobacter alexandrii Yang et al. 2022
 Marinobacter algicola Green et al. 2006
@@ -639,8 +762,43 @@
 Marinobacter xestospongiae Lee et al. 2012
 Marinobacter zhanjiangensis Zhuang et al. 2012
 Marinobacter zhejiangensis Huo et al. 2008
-Espèces publiées de manière non valides
-Marinobacter alkaliphilus Takai et al.  2005
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marinobacter</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marinobacter</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Espèces publiées de manière non valides</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Marinobacter alkaliphilus Takai et al.  2005
 Marinobacter arcticus Button et al. 1998
 Marinobacter arenosus Lee et al. 2022
 Marinobacter atlanticus Bird et al. 2018
@@ -652,9 +810,43 @@
 Marinobacter nanhaiticus Gao et al. 2013
 Marinobacter piscensis Hedi et al. 2015
 Marinobacter squalenivorans Rontani et al. 2003
-Marinobacter subterrani Bonis &amp; Gralnick 2015
-Espèces synonymes
-Marinobacter aquaeolei (Nguyen et al. 1999) est synonyme de Marinobacter nauticus[8].
+Marinobacter subterrani Bonis &amp; Gralnick 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marinobacter</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marinobacter</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Espèces synonymes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Marinobacter aquaeolei (Nguyen et al. 1999) est synonyme de Marinobacter nauticus.
 Marinobacter hydrocarbonoclasticus (Gauthier et al. 1992) qui était la souche type du genre est un synonyme de Marinobacter nauticus.</t>
         </is>
       </c>
